--- a/Docs/Feature_List.xlsx
+++ b/Docs/Feature_List.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Actor Actions" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
   <si>
     <t>Register</t>
   </si>
@@ -140,12 +140,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t xml:space="preserve">Oracle SQL? </t>
-  </si>
-  <si>
-    <t>Digital Ocean CentOS box.</t>
-  </si>
-  <si>
     <t>ASP MVC Site</t>
   </si>
   <si>
@@ -155,18 +149,12 @@
     <t>Whatever ASP MVC provides out-of-box</t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
     <t>Costs (monthly)</t>
   </si>
   <si>
     <t>Costs (annual)</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>?? Depends on data storage needed</t>
   </si>
   <si>
@@ -228,6 +216,21 @@
   </si>
   <si>
     <t>https://theobjectifiedprogrammer.com/install-vnext-on-digitalocean-ubuntu-droplet/</t>
+  </si>
+  <si>
+    <t>Gearhost MSSQL Database</t>
+  </si>
+  <si>
+    <t>Gearhost low-end Box</t>
+  </si>
+  <si>
+    <t>Free while on Gearhost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most used Warcaster </t>
+  </si>
+  <si>
+    <t>M1.5 - Set up Stats views and filters</t>
   </si>
 </sst>
 </file>
@@ -626,19 +629,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="5"/>
-    <col min="9" max="9" width="31.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.75" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="4" max="4" width="5.75" style="5" customWidth="1"/>
+    <col min="5" max="5" width="22.25" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="5"/>
+    <col min="9" max="9" width="31.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -655,7 +658,7 @@
       </c>
       <c r="F1" s="7"/>
       <c r="I1" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -678,7 +681,7 @@
         <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -701,7 +704,7 @@
         <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -724,7 +727,7 @@
         <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -746,6 +749,9 @@
       <c r="F5" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -833,7 +839,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>21</v>
@@ -850,15 +856,15 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.875" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -869,10 +875,10 @@
         <v>36</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -880,7 +886,10 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>63</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0</v>
       </c>
       <c r="D2" s="10">
         <f>C2 *12</f>
@@ -892,14 +901,14 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="C3" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D3" s="10">
         <f>C3 *12</f>
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -907,7 +916,10 @@
         <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0</v>
       </c>
       <c r="D4" s="10">
         <f t="shared" ref="D4:D8" si="0">C4 *12</f>
@@ -919,14 +931,14 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="10" t="e">
+        <v>42</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -934,14 +946,13 @@
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="C6" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="10">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -949,7 +960,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D7" s="10">
         <f t="shared" si="0"/>
@@ -958,10 +969,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D8" s="10">
         <f t="shared" si="0"/>
@@ -970,7 +981,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -980,65 +991,73 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1"/>
-    <col min="2" max="2" width="49.140625" customWidth="1"/>
-    <col min="3" max="3" width="44.7109375" customWidth="1"/>
+    <col min="1" max="1" width="50.75" customWidth="1"/>
+    <col min="2" max="2" width="49.125" customWidth="1"/>
+    <col min="3" max="3" width="44.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
         <v>60</v>
       </c>
-      <c r="B4" t="s">
-        <v>64</v>
-      </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1050,18 +1069,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="80.28515625" customWidth="1"/>
+    <col min="1" max="1" width="80.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
